--- a/docs/require_documents/数据结构2018-01-29.xlsx
+++ b/docs/require_documents/数据结构2018-01-29.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="222">
   <si>
     <t>电源商（power_supplier）</t>
   </si>
@@ -653,6 +653,121 @@
   </si>
   <si>
     <t>text</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐（package）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_price</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期电价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_electricity</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>下限电量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(16,3)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(16,3)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户-套餐映射表（user_package）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_time</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>办理日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Id</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐Id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户（user）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐（package）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2707,7 +2822,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:G15"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3163,7 +3278,7 @@
         <v>142</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
@@ -3294,10 +3409,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3712,7 +3827,7 @@
         <v>161</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>10</v>
@@ -4168,7 +4283,7 @@
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="3" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="3"/>
@@ -4301,18 +4416,268 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
+    <row r="74" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A39:G39"/>
     <mergeCell ref="A44:G44"/>
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A56:G56"/>
     <mergeCell ref="A61:G61"/>
     <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A39:G39"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/docs/require_documents/数据结构2018-01-29.xlsx
+++ b/docs/require_documents/数据结构2018-01-29.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="225">
   <si>
     <t>电源商（power_supplier）</t>
   </si>
@@ -503,18 +503,6 @@
     <t>电价系数（price_coefficient）</t>
   </si>
   <si>
-    <t>系数名</t>
-  </si>
-  <si>
-    <t>coefficient</t>
-  </si>
-  <si>
-    <t>系数值</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -768,6 +756,34 @@
   </si>
   <si>
     <t>套餐（package）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>peak</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高峰系数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>flat</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>平段系数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>trough</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>低谷系数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2821,8 +2837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3278,7 +3294,7 @@
         <v>142</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
@@ -3411,8 +3427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3691,13 +3707,13 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
@@ -3706,15 +3722,15 @@
       <c r="F21" s="3"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -3722,6 +3738,23 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
@@ -3806,11 +3839,11 @@
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>10</v>
@@ -3821,13 +3854,13 @@
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>10</v>
@@ -3838,10 +3871,10 @@
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -3854,18 +3887,18 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>10</v>
@@ -3876,13 +3909,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>10</v>
@@ -3896,25 +3929,25 @@
         <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -3980,7 +4013,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -4031,10 +4064,10 @@
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>13</v>
@@ -4048,10 +4081,10 @@
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>59</v>
@@ -4065,7 +4098,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -4116,10 +4149,10 @@
     </row>
     <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>9</v>
@@ -4132,15 +4165,15 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>9</v>
@@ -4153,12 +4186,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -4207,7 +4240,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="2"/>
       <c r="H58" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
@@ -4225,7 +4258,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -4274,7 +4307,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="2"/>
       <c r="H63" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
@@ -4283,7 +4316,7 @@
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="3"/>
@@ -4295,7 +4328,7 @@
         <v>23</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>9</v>
@@ -4306,13 +4339,13 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -4363,10 +4396,10 @@
     </row>
     <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>9</v>
@@ -4379,18 +4412,18 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>10</v>
@@ -4401,13 +4434,13 @@
     </row>
     <row r="72" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>10</v>
@@ -4419,7 +4452,7 @@
     <row r="74" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="75" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -4470,13 +4503,13 @@
     </row>
     <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>10</v>
@@ -4487,13 +4520,13 @@
     </row>
     <row r="79" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>10</v>
@@ -4504,13 +4537,13 @@
     </row>
     <row r="80" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>10</v>
@@ -4521,13 +4554,13 @@
     </row>
     <row r="81" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>10</v>
@@ -4538,13 +4571,13 @@
     </row>
     <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>10</v>
@@ -4556,7 +4589,7 @@
     <row r="83" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -4607,10 +4640,10 @@
     </row>
     <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>9</v>
@@ -4623,18 +4656,18 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>10</v>
@@ -4644,18 +4677,18 @@
         <v>10</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>10</v>

--- a/docs/require_documents/数据结构2018-01-29.xlsx
+++ b/docs/require_documents/数据结构2018-01-29.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="250">
   <si>
     <t>电源商（power_supplier）</t>
   </si>
@@ -95,9 +95,6 @@
     <t>所在省份</t>
   </si>
   <si>
-    <t>city_id</t>
-  </si>
-  <si>
     <t>所在城市</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>所属行业</t>
   </si>
   <si>
-    <t>售电合约（sell_electricity_agreement）</t>
-  </si>
-  <si>
     <t>customer_id</t>
   </si>
   <si>
@@ -200,9 +194,6 @@
     <t>varchar(20)</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>合约编号</t>
   </si>
   <si>
@@ -221,9 +212,6 @@
     <t>附件名</t>
   </si>
   <si>
-    <t>voltage_type_id</t>
-  </si>
-  <si>
     <t>电压等级</t>
   </si>
   <si>
@@ -245,9 +233,6 @@
     <t>support_trade_price</t>
   </si>
   <si>
-    <t>精准扶持直购电量交易价格</t>
-  </si>
-  <si>
     <t>replace_trade_price</t>
   </si>
   <si>
@@ -258,15 +243,6 @@
   </si>
   <si>
     <t>富余电量交易价格</t>
-  </si>
-  <si>
-    <t>售电合约每月数据（sell_electricity_agreement_month_data)</t>
-  </si>
-  <si>
-    <t>sell_agreement_id</t>
-  </si>
-  <si>
-    <t>售电合约id</t>
   </si>
   <si>
     <t>january</t>
@@ -368,39 +344,18 @@
     </r>
   </si>
   <si>
-    <t>购电合约（buy_electricity_agreement）</t>
-  </si>
-  <si>
     <t>supplier_id</t>
   </si>
   <si>
-    <t>trade_type_id</t>
-  </si>
-  <si>
     <t>交易品种</t>
   </si>
   <si>
-    <t>交易类型（trade_type）</t>
-  </si>
-  <si>
-    <t>trade_price</t>
-  </si>
-  <si>
     <t>交易价格</t>
   </si>
   <si>
-    <t>购电合约用户信息（buy_electricity_agreement_user_data）</t>
-  </si>
-  <si>
-    <t>buy_electricity_agreement_id</t>
-  </si>
-  <si>
     <t>购电合约id</t>
   </si>
   <si>
-    <t>电量数据（electricity_data）</t>
-  </si>
-  <si>
     <t>em_no</t>
   </si>
   <si>
@@ -416,9 +371,6 @@
     <t>varchar(6)</t>
   </si>
   <si>
-    <t>电压等级（voltage_type）</t>
-  </si>
-  <si>
     <t>peak_kwh</t>
   </si>
   <si>
@@ -443,9 +395,6 @@
     <t>无功电量</t>
   </si>
   <si>
-    <t>交易单元（trade_type）</t>
-  </si>
-  <si>
     <t>电量调整数据（electricity_adjustment_data）</t>
   </si>
   <si>
@@ -458,27 +407,15 @@
     <t>合约（sell_electricity_agreement）</t>
   </si>
   <si>
-    <t>agreement_no</t>
-  </si>
-  <si>
     <t>合约有效年</t>
   </si>
   <si>
-    <t>adjustment_num</t>
-  </si>
-  <si>
     <t>本次调整电量</t>
   </si>
   <si>
-    <t>adjustment_type</t>
-  </si>
-  <si>
     <t>调整类型</t>
   </si>
   <si>
-    <t>adjustment_month</t>
-  </si>
-  <si>
     <t>调整月份</t>
   </si>
   <si>
@@ -509,9 +446,6 @@
     <t>varchar(16)</t>
   </si>
   <si>
-    <t>state</t>
-  </si>
-  <si>
     <t>状态：激活、禁用</t>
   </si>
   <si>
@@ -549,18 +483,6 @@
   </si>
   <si>
     <t>权限（authority）</t>
-  </si>
-  <si>
-    <t>func</t>
-  </si>
-  <si>
-    <t>功能</t>
-  </si>
-  <si>
-    <t>func_name</t>
-  </si>
-  <si>
-    <t>功能名</t>
   </si>
   <si>
     <t>角色-权限映射表（role_authority）</t>
@@ -644,10 +566,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>套餐（package）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -708,15 +626,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>desc</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户-套餐映射表（user_package）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -786,12 +696,273 @@
     <t>float</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>res</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>op</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作权限</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>购电合约（buy_electricity_contract）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachment_name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>voltage_type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>购电合约用户信息（buy_electricity_contract_user_info）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeQuantity</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>售电合约每月数据（sell_power_agreement_month_data)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjustment</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjustmentType</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeType</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreement_num</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_num</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>voltage_type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>voltageType</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐（electricity_package）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc_info</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>电力用户（power_customer）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>电量数据（power_data）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源商（power_supplier）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>售电合约（sell_power_agreement）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>umber</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_power_quantity</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准扶持直购电量交易价格</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>archar(30)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>month_data_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>月数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>售电合约每月数据(sell_power_agreement_month_data)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_status</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型：系统、电力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户-套餐映射表（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>user_electricity_package</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkg_id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>(已弃用)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,6 +1010,36 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -899,7 +1100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -920,6 +1121,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,7 +1409,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1212,7 +1425,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1331,51 +1544,47 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -1386,10 +1595,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -1403,10 +1612,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
@@ -1420,13 +1629,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
@@ -1437,10 +1646,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -1454,10 +1663,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -1471,10 +1680,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
@@ -1488,13 +1697,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -1505,10 +1714,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -1521,7 +1730,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1538,7 +1747,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1554,7 +1763,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1608,7 +1817,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -1639,10 +1848,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
@@ -1656,51 +1865,47 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -1711,10 +1916,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -1728,10 +1933,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
@@ -1745,13 +1950,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
@@ -1762,10 +1967,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
@@ -1779,10 +1984,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -1796,10 +2001,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -1813,13 +2018,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
@@ -1830,10 +2035,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -1846,7 +2051,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1860,10 +2065,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1872,12 +2077,12 @@
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="36.75" customWidth="1"/>
+    <col min="7" max="7" width="46.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>53</v>
+      <c r="A1" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1928,10 +2133,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -1944,15 +2149,15 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1969,10 +2174,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -1982,11 +2187,11 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>60</v>
+      <c r="A7" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -2000,13 +2205,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -2017,10 +2222,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -2033,32 +2238,28 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
@@ -2072,10 +2273,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -2089,10 +2290,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -2106,10 +2307,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -2123,10 +2324,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -2140,10 +2341,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -2156,18 +2357,18 @@
         <v>10</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -2176,87 +2377,96 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
@@ -2267,13 +2477,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
@@ -2284,13 +2494,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>10</v>
@@ -2301,13 +2511,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>10</v>
@@ -2318,13 +2528,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>10</v>
@@ -2335,13 +2545,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
@@ -2352,13 +2562,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
@@ -2369,13 +2579,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>10</v>
@@ -2386,13 +2596,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>10</v>
@@ -2403,13 +2613,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>10</v>
@@ -2420,13 +2630,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>10</v>
@@ -2437,13 +2647,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>10</v>
@@ -2454,107 +2664,180 @@
     </row>
     <row r="36" spans="1:7" ht="135" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="A43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C45" s="1" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>10</v>
@@ -2565,13 +2848,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>10</v>
@@ -2582,13 +2865,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>10</v>
@@ -2599,10 +2882,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>9</v>
@@ -2615,18 +2898,18 @@
         <v>10</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>10</v>
@@ -2635,198 +2918,122 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="1" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="D59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+    <row r="60" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A56:G56"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2837,8 +3044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2852,7 +3059,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2903,10 +3110,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -2919,15 +3126,15 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -2941,13 +3148,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -2958,13 +3165,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -2975,31 +3182,27 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
@@ -3013,10 +3216,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
@@ -3030,10 +3233,10 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
@@ -3047,10 +3250,10 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -3064,31 +3267,27 @@
     </row>
     <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -3101,18 +3300,18 @@
         <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -3123,7 +3322,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3174,10 +3373,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>9</v>
@@ -3190,15 +3389,15 @@
         <v>10</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -3212,10 +3411,10 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>9</v>
@@ -3228,18 +3427,18 @@
         <v>10</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>10</v>
@@ -3250,13 +3449,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>10</v>
@@ -3267,34 +3466,30 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
@@ -3305,10 +3500,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>19</v>
@@ -3322,10 +3517,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>22</v>
@@ -3339,13 +3534,13 @@
     </row>
     <row r="31" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>10</v>
@@ -3356,31 +3551,27 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>9</v>
@@ -3393,18 +3584,18 @@
         <v>10</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>10</v>
@@ -3425,10 +3616,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3442,9 +3633,9 @@
     <col min="8" max="8" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3453,7 +3644,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3476,7 +3667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3493,15 +3684,15 @@
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -3509,16 +3700,19 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H4" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -3527,15 +3721,15 @@
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -3545,12 +3739,12 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3559,7 +3753,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -3582,7 +3776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -3599,15 +3793,15 @@
       <c r="F12" s="3"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
@@ -3616,15 +3810,15 @@
       <c r="F13" s="3"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -3633,15 +3827,15 @@
       <c r="F14" s="3"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -3651,12 +3845,12 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3707,13 +3901,13 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
@@ -3724,13 +3918,13 @@
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -3741,13 +3935,13 @@
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
@@ -3758,7 +3952,7 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -3807,13 +4001,13 @@
       <c r="F28" s="3"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
@@ -3822,13 +4016,13 @@
       <c r="F29" s="3"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>14</v>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>10</v>
@@ -3839,11 +4033,13 @@
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="3"/>
+        <v>244</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="C31" s="3" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>10</v>
@@ -3853,52 +4049,52 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>156</v>
+      <c r="A32" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>9</v>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>160</v>
-      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>10</v>
@@ -3907,47 +4103,47 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>167</v>
-      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -4002,7 +4198,7 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>10</v>
@@ -4013,7 +4209,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -4064,10 +4260,10 @@
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>13</v>
@@ -4081,13 +4277,13 @@
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>10</v>
@@ -4098,7 +4294,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -4107,7 +4303,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -4130,300 +4326,304 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="E52" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="E53" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D57" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="2"/>
+      <c r="H57" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="3" t="s">
+      <c r="B62" s="2"/>
+      <c r="C62" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="2"/>
-      <c r="H58" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="2"/>
+      <c r="H62" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="1"/>
       <c r="G63" s="2"/>
-      <c r="H63" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="64" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C64" s="3" t="s">
-        <v>196</v>
+        <v>9</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="F64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-    </row>
-    <row r="68" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="C69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>9</v>
+      <c r="E69" s="3"/>
+      <c r="F69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>10</v>
@@ -4432,101 +4632,101 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="74" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+    </row>
     <row r="75" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-    </row>
-    <row r="76" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="C77" s="3" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="1"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>196</v>
+    <row r="78" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="2"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>10</v>
@@ -4537,13 +4737,13 @@
     </row>
     <row r="80" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>10</v>
@@ -4552,155 +4752,125 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>207</v>
+    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+    </row>
     <row r="84" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-    </row>
-    <row r="85" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>3</v>
+        <v>185</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="3" t="s">
-        <v>9</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>9</v>
+      <c r="E86" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="A83:G83"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A18:G18"/>
@@ -4708,11 +4878,12 @@
     <mergeCell ref="A39:G39"/>
     <mergeCell ref="A44:G44"/>
     <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A66:G66"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>